--- a/data/pca/factorExposure/factorExposure_2012-09-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-09-21.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001185652166159735</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001815207205061554</v>
+      </c>
+      <c r="C2">
+        <v>0.02839577528229616</v>
+      </c>
+      <c r="D2">
+        <v>0.004956885947950175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001420893490394886</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.007365070835297003</v>
+      </c>
+      <c r="C4">
+        <v>0.08341036599669832</v>
+      </c>
+      <c r="D4">
+        <v>0.06967990569746693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.001913357596828517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01486936439418571</v>
+      </c>
+      <c r="C6">
+        <v>0.1160584955066251</v>
+      </c>
+      <c r="D6">
+        <v>0.02437497805501706</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0003013128744694943</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005021402604210627</v>
+      </c>
+      <c r="C7">
+        <v>0.0578041551778483</v>
+      </c>
+      <c r="D7">
+        <v>0.03511755629998713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0003434067369867473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.00599572185872321</v>
+      </c>
+      <c r="C8">
+        <v>0.03547981621745114</v>
+      </c>
+      <c r="D8">
+        <v>0.04057369084097425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.002532905268828875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005362756843158988</v>
+      </c>
+      <c r="C9">
+        <v>0.0707992456345448</v>
+      </c>
+      <c r="D9">
+        <v>0.07548510628249479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002334632360309966</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.004901285537222313</v>
+      </c>
+      <c r="C10">
+        <v>0.05463254698625426</v>
+      </c>
+      <c r="D10">
+        <v>-0.1895690971518176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002751331516412772</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005768116471889383</v>
+      </c>
+      <c r="C11">
+        <v>0.07866513892056647</v>
+      </c>
+      <c r="D11">
+        <v>0.06625314396621092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.00118487173759328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004456376696839565</v>
+      </c>
+      <c r="C12">
+        <v>0.06398119397463252</v>
+      </c>
+      <c r="D12">
+        <v>0.05178001994379435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001305154319903262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008533782511219274</v>
+      </c>
+      <c r="C13">
+        <v>0.06742445427643251</v>
+      </c>
+      <c r="D13">
+        <v>0.06115494174196188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001406204997532153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007702111537860418</v>
+      </c>
+      <c r="C14">
+        <v>0.04165293111744316</v>
+      </c>
+      <c r="D14">
+        <v>0.01315246521406247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0004929010512913454</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005947847831559858</v>
+      </c>
+      <c r="C15">
+        <v>0.03994719699547408</v>
+      </c>
+      <c r="D15">
+        <v>0.03029107134411392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0008522480780791308</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005143312532269462</v>
+      </c>
+      <c r="C16">
+        <v>0.06374046622203854</v>
+      </c>
+      <c r="D16">
+        <v>0.05851920839587507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001706873219957747</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008759404965715836</v>
+      </c>
+      <c r="C20">
+        <v>0.06275723059281248</v>
+      </c>
+      <c r="D20">
+        <v>0.05265711805458854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005905976001029872</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009350964604342043</v>
+      </c>
+      <c r="C21">
+        <v>0.01896420523931257</v>
+      </c>
+      <c r="D21">
+        <v>0.04350276810683987</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01940339356172022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006934349996685498</v>
+      </c>
+      <c r="C22">
+        <v>0.08679379441790222</v>
+      </c>
+      <c r="D22">
+        <v>0.1241219441088033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01908326750593251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006646666768093172</v>
+      </c>
+      <c r="C23">
+        <v>0.08716116922027002</v>
+      </c>
+      <c r="D23">
+        <v>0.1252738628796599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002522030783400342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005668679286800458</v>
+      </c>
+      <c r="C24">
+        <v>0.07554494120237218</v>
+      </c>
+      <c r="D24">
+        <v>0.06869799604718826</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004731135318920512</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003215610557177972</v>
+      </c>
+      <c r="C25">
+        <v>0.07699540831691243</v>
+      </c>
+      <c r="D25">
+        <v>0.0678029068385378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003289640031307114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003647166085007011</v>
+      </c>
+      <c r="C26">
+        <v>0.03812957114856172</v>
+      </c>
+      <c r="D26">
+        <v>0.02617658081570844</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007548007187203589</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001610419558216903</v>
+      </c>
+      <c r="C28">
+        <v>0.1047082688024394</v>
+      </c>
+      <c r="D28">
+        <v>-0.3238494833363716</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0008921751637877548</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002687881242034475</v>
+      </c>
+      <c r="C29">
+        <v>0.04817291619117831</v>
+      </c>
+      <c r="D29">
+        <v>0.01154299314109808</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005433557039583953</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009734363542396205</v>
+      </c>
+      <c r="C30">
+        <v>0.1408554303897239</v>
+      </c>
+      <c r="D30">
+        <v>0.1118869730233439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002768473540092854</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.0063548207508864</v>
+      </c>
+      <c r="C31">
+        <v>0.04294331076394201</v>
+      </c>
+      <c r="D31">
+        <v>0.033479942090897</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.003731790688664299</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003676074802066109</v>
+      </c>
+      <c r="C32">
+        <v>0.03977521633476536</v>
+      </c>
+      <c r="D32">
+        <v>0.02339055171451181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.001901654510595848</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.00913994634416416</v>
+      </c>
+      <c r="C33">
+        <v>0.08817535174995929</v>
+      </c>
+      <c r="D33">
+        <v>0.06709495919009084</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.00277202207776637</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004290021233622537</v>
+      </c>
+      <c r="C34">
+        <v>0.05717605444949535</v>
+      </c>
+      <c r="D34">
+        <v>0.0596125343618968</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002707794662590363</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005418144265119552</v>
+      </c>
+      <c r="C35">
+        <v>0.04005166547662595</v>
+      </c>
+      <c r="D35">
+        <v>0.02107954903062249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.005632769258165024</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001518252374522629</v>
+      </c>
+      <c r="C36">
+        <v>0.02389918313147671</v>
+      </c>
+      <c r="D36">
+        <v>0.02778575449241453</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.0009509812692079768</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009392400617029197</v>
+      </c>
+      <c r="C38">
+        <v>0.03943256704004403</v>
+      </c>
+      <c r="D38">
+        <v>0.01304950367476196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01176194773783658</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001203880276644609</v>
+      </c>
+      <c r="C39">
+        <v>0.1126417154005066</v>
+      </c>
+      <c r="D39">
+        <v>0.07799847667338101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.005142826280486134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003919402977342941</v>
+      </c>
+      <c r="C40">
+        <v>0.09040158987702153</v>
+      </c>
+      <c r="D40">
+        <v>0.01783621472237747</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0003457680353362141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007250624406550519</v>
+      </c>
+      <c r="C41">
+        <v>0.03903010665791817</v>
+      </c>
+      <c r="D41">
+        <v>0.04120702478481558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002313639695582572</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003876327426678343</v>
+      </c>
+      <c r="C43">
+        <v>0.05246376252293921</v>
+      </c>
+      <c r="D43">
+        <v>0.0295168964129726</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.009425896121175448</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002641380572270645</v>
+      </c>
+      <c r="C44">
+        <v>0.1032144663807683</v>
+      </c>
+      <c r="D44">
+        <v>0.06977507243109787</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001329009323115869</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001650447639062202</v>
+      </c>
+      <c r="C46">
+        <v>0.03289249632374321</v>
+      </c>
+      <c r="D46">
+        <v>0.03555247600743403</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.001032424802364679</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002284443837763419</v>
+      </c>
+      <c r="C47">
+        <v>0.03507268204544732</v>
+      </c>
+      <c r="D47">
+        <v>0.02310647269075298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.002951541457090433</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006727565952774028</v>
+      </c>
+      <c r="C48">
+        <v>0.02988543506558369</v>
+      </c>
+      <c r="D48">
+        <v>0.03724783859508823</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.0007401611610551035</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01799669442832939</v>
+      </c>
+      <c r="C49">
+        <v>0.1906582559985728</v>
+      </c>
+      <c r="D49">
+        <v>0.005063858701933951</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0003140058870262264</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003547391051198891</v>
+      </c>
+      <c r="C50">
+        <v>0.04195590294589274</v>
+      </c>
+      <c r="D50">
+        <v>0.04082128754498055</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001257442091326278</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.00470979285234331</v>
+      </c>
+      <c r="C51">
+        <v>0.02663916022105516</v>
+      </c>
+      <c r="D51">
+        <v>0.02231002929487571</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.003584187084371391</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02159203660353639</v>
+      </c>
+      <c r="C53">
+        <v>0.1712214093430315</v>
+      </c>
+      <c r="D53">
+        <v>0.02156969839058568</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.00175289864064513</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.00942696432507722</v>
+      </c>
+      <c r="C54">
+        <v>0.05485266530330282</v>
+      </c>
+      <c r="D54">
+        <v>0.04272083591072143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.001640090233707269</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009857988898770898</v>
+      </c>
+      <c r="C55">
+        <v>0.1075994747823091</v>
+      </c>
+      <c r="D55">
+        <v>0.03862014042678275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.005139637207849566</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02060110300080942</v>
+      </c>
+      <c r="C56">
+        <v>0.1745152360895036</v>
+      </c>
+      <c r="D56">
+        <v>0.01531721128180301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.0009716275370617257</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01932371182635985</v>
+      </c>
+      <c r="C58">
+        <v>0.1037879145095282</v>
+      </c>
+      <c r="D58">
+        <v>0.07251357351810631</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.004184038993652503</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01019191879489671</v>
+      </c>
+      <c r="C59">
+        <v>0.169076674929998</v>
+      </c>
+      <c r="D59">
+        <v>-0.3420898031664868</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.001632072858552408</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02521321082296316</v>
+      </c>
+      <c r="C60">
+        <v>0.2269145767303395</v>
+      </c>
+      <c r="D60">
+        <v>0.01717769031111313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01122273785943395</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001709125362380566</v>
+      </c>
+      <c r="C61">
+        <v>0.09410719862572758</v>
+      </c>
+      <c r="D61">
+        <v>0.05797564409483272</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1487306736131972</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1499205788464495</v>
+      </c>
+      <c r="C62">
+        <v>0.0984281623445678</v>
+      </c>
+      <c r="D62">
+        <v>0.01995970525203233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0001241154394172886</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006481080715094993</v>
+      </c>
+      <c r="C63">
+        <v>0.05227338453901414</v>
+      </c>
+      <c r="D63">
+        <v>0.03547534188815667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.005865126652111578</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01607829517323343</v>
+      </c>
+      <c r="C64">
+        <v>0.105829828170717</v>
+      </c>
+      <c r="D64">
+        <v>0.05435004418548849</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.004165362617582282</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01779445228785476</v>
+      </c>
+      <c r="C65">
+        <v>0.1211295301645941</v>
+      </c>
+      <c r="D65">
+        <v>0.0297353403834753</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.00503192873679193</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01357197826305422</v>
+      </c>
+      <c r="C66">
+        <v>0.1606675587434311</v>
+      </c>
+      <c r="D66">
+        <v>0.1088101499629123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003353286479370706</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01587919852239739</v>
+      </c>
+      <c r="C67">
+        <v>0.07188945591042936</v>
+      </c>
+      <c r="D67">
+        <v>0.02302528608644102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.00470876637613735</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0009720182183063654</v>
+      </c>
+      <c r="C68">
+        <v>0.08686205656009688</v>
+      </c>
+      <c r="D68">
+        <v>-0.2565092060058269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001906329333213309</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006592482380271074</v>
+      </c>
+      <c r="C69">
+        <v>0.05246827715989723</v>
+      </c>
+      <c r="D69">
+        <v>0.03787383186528259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001441844045939016</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002327779837352619</v>
+      </c>
+      <c r="C70">
+        <v>0.007200263767100905</v>
+      </c>
+      <c r="D70">
+        <v>0.002023309056673824</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0004227652005223421</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005501970117594622</v>
+      </c>
+      <c r="C71">
+        <v>0.09135081712321277</v>
+      </c>
+      <c r="D71">
+        <v>-0.3010097085163747</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.0008819272485054754</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01709766706449759</v>
+      </c>
+      <c r="C72">
+        <v>0.1565168068592176</v>
+      </c>
+      <c r="D72">
+        <v>0.01157834466533614</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.002827113135864932</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03212192458720945</v>
+      </c>
+      <c r="C73">
+        <v>0.2832287771387659</v>
+      </c>
+      <c r="D73">
+        <v>0.050315810529375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.006507045612375546</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002107826694191471</v>
+      </c>
+      <c r="C74">
+        <v>0.1023373935798925</v>
+      </c>
+      <c r="D74">
+        <v>0.03497570500357301</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.003102897310728021</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01086725146674159</v>
+      </c>
+      <c r="C75">
+        <v>0.1209124888602687</v>
+      </c>
+      <c r="D75">
+        <v>0.02685213414317012</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.00895880807094966</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.0226133704321938</v>
+      </c>
+      <c r="C76">
+        <v>0.1469616381820101</v>
+      </c>
+      <c r="D76">
+        <v>0.05715662153639026</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.002786883316360439</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02093577059875616</v>
+      </c>
+      <c r="C77">
+        <v>0.1140771895340003</v>
+      </c>
+      <c r="D77">
+        <v>0.05699923199048612</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.003057539478766492</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01482494964937942</v>
+      </c>
+      <c r="C78">
+        <v>0.09671902236118522</v>
+      </c>
+      <c r="D78">
+        <v>0.08169802000138961</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02438896008016419</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03863010722855393</v>
+      </c>
+      <c r="C79">
+        <v>0.1558120863086101</v>
+      </c>
+      <c r="D79">
+        <v>0.03374132648267254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005442434512377779</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009948303620253948</v>
+      </c>
+      <c r="C80">
+        <v>0.03838205778111118</v>
+      </c>
+      <c r="D80">
+        <v>0.03087045974503059</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.002294497731767617</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01590892122426075</v>
+      </c>
+      <c r="C81">
+        <v>0.1285647423540222</v>
+      </c>
+      <c r="D81">
+        <v>0.03910144354702733</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005724015502673725</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02003416976949214</v>
+      </c>
+      <c r="C82">
+        <v>0.1389813283076088</v>
+      </c>
+      <c r="D82">
+        <v>0.03719548984341361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.002725790722822381</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01231916764397687</v>
+      </c>
+      <c r="C83">
+        <v>0.06419430005679044</v>
+      </c>
+      <c r="D83">
+        <v>0.04323925302589556</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.009911033040010219</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01271266086245402</v>
+      </c>
+      <c r="C84">
+        <v>0.03878989672790601</v>
+      </c>
+      <c r="D84">
+        <v>-0.00624410757904509</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01540777919523642</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02914877413094324</v>
+      </c>
+      <c r="C85">
+        <v>0.1232185859851605</v>
+      </c>
+      <c r="D85">
+        <v>0.03967843090904622</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003173990044527881</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004252478692325015</v>
+      </c>
+      <c r="C86">
+        <v>0.04887247874099526</v>
+      </c>
+      <c r="D86">
+        <v>0.03102870157410153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.0009893282831197399</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01129609809064305</v>
+      </c>
+      <c r="C87">
+        <v>0.1262230112445693</v>
+      </c>
+      <c r="D87">
+        <v>0.07883030670257238</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01076804596591362</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003080531377812704</v>
+      </c>
+      <c r="C88">
+        <v>0.0627224532384691</v>
+      </c>
+      <c r="D88">
+        <v>0.02892715132724271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01107030953639143</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001981963570534685</v>
+      </c>
+      <c r="C89">
+        <v>0.13904838610984</v>
+      </c>
+      <c r="D89">
+        <v>-0.316140443237539</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.00222381841424348</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006511125004366364</v>
+      </c>
+      <c r="C90">
+        <v>0.1203612749842842</v>
+      </c>
+      <c r="D90">
+        <v>-0.3123950416666655</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0003194533608442816</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01053554170558428</v>
+      </c>
+      <c r="C91">
+        <v>0.09865210615499223</v>
+      </c>
+      <c r="D91">
+        <v>0.02651981826139512</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007224286560923323</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0003911950364524661</v>
+      </c>
+      <c r="C92">
+        <v>0.1341144567493579</v>
+      </c>
+      <c r="D92">
+        <v>-0.3238557993681758</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001442154994521834</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003998075065254991</v>
+      </c>
+      <c r="C93">
+        <v>0.1049427484574144</v>
+      </c>
+      <c r="D93">
+        <v>-0.2978738035012479</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.006268775688613492</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02208435923835107</v>
+      </c>
+      <c r="C94">
+        <v>0.1422880265174312</v>
+      </c>
+      <c r="D94">
+        <v>0.05502521769221629</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.001711095312720953</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01655135251185115</v>
+      </c>
+      <c r="C95">
+        <v>0.1200299434530909</v>
+      </c>
+      <c r="D95">
+        <v>0.06715247634929628</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01091614388528585</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03676785161568632</v>
+      </c>
+      <c r="C97">
+        <v>0.2257074314461114</v>
+      </c>
+      <c r="D97">
+        <v>0.003909908121601816</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.0055605741172583</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03843724094541129</v>
+      </c>
+      <c r="C98">
+        <v>0.2581393394590578</v>
+      </c>
+      <c r="D98">
+        <v>0.0310684293515503</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.987229134470589</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9810550548362668</v>
+      </c>
+      <c r="C99">
+        <v>-0.1212609787970042</v>
+      </c>
+      <c r="D99">
+        <v>-0.02428542561979814</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0008226387000199583</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002728843918382658</v>
+      </c>
+      <c r="C101">
+        <v>0.04829727374047727</v>
+      </c>
+      <c r="D101">
+        <v>0.01191573607199277</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
